--- a/public/template/phoneCalibrationExcel.xlsx
+++ b/public/template/phoneCalibrationExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>车辆型号</t>
+  </si>
+  <si>
+    <t>手机品牌</t>
+  </si>
+  <si>
+    <t>手机型号</t>
+  </si>
+  <si>
+    <t>车辆品牌</t>
+  </si>
   <si>
     <t>车型</t>
   </si>
   <si>
-    <t>手机品牌</t>
-  </si>
-  <si>
-    <t>手机型号</t>
-  </si>
-  <si>
     <t>标定数据</t>
   </si>
   <si>
@@ -35,6 +41,12 @@
   </si>
   <si>
     <t>iPhone 12 Pro Max</t>
+  </si>
+  <si>
+    <t>福田</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
   <si>
     <t>00006950686f6e65ffffffff6950686f6e6531332c34ffffffffffffffffffff</t>
@@ -48,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -86,18 +98,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,89 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -202,6 +198,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -252,37 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,145 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,39 +487,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -533,6 +512,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,46 +588,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,40 +636,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -666,66 +678,72 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,76 +1080,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="83.625" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="83.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/phoneCalibrationExcel.xlsx
+++ b/public/template/phoneCalibrationExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worksapce\WEB-Front\dkserver-front-saic\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dkserver-front-saic\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C592FA-756A-4BE5-9A50-DCF58B68F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1914125-A42B-470C-866F-6468D535E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>车辆型号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>手机品牌</t>
   </si>
@@ -31,25 +28,13 @@
     <t>手机型号</t>
   </si>
   <si>
-    <t>车辆品牌</t>
-  </si>
-  <si>
     <t>车型</t>
   </si>
   <si>
     <t>标定数据</t>
   </si>
   <si>
-    <t>zs123</t>
-  </si>
-  <si>
     <t>iPhone</t>
-  </si>
-  <si>
-    <t>iPhone 12 Pro Max</t>
-  </si>
-  <si>
-    <t>福田</t>
   </si>
   <si>
     <t>P4</t>
@@ -66,6 +51,10 @@
   </si>
   <si>
     <t>ffffffd4d3d20affffffffffffffffffffffffff7fba9f3bc89c6daa7d7eb85b4bc86dffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 12</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,23 +178,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,23 +468,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="6" width="83.625" customWidth="1"/>
-    <col min="7" max="7" width="233.625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="83.625" customWidth="1"/>
+    <col min="5" max="5" width="233.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,76 +496,56 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>13</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/phoneCalibrationExcel.xlsx
+++ b/public/template/phoneCalibrationExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dkserver-front-saic\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chrome\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1914125-A42B-470C-866F-6468D535E230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20820A-427E-4C1A-BAF3-D00A47B9F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>车辆型号</t>
+  </si>
   <si>
     <t>手机品牌</t>
   </si>
@@ -28,34 +31,22 @@
     <t>手机型号</t>
   </si>
   <si>
-    <t>车型</t>
-  </si>
-  <si>
     <t>标定数据</t>
   </si>
   <si>
+    <t>zs123</t>
+  </si>
+  <si>
     <t>iPhone</t>
   </si>
   <si>
-    <t>P4</t>
+    <t>iPhone 12 Pro Max</t>
   </si>
   <si>
     <t>00006950686f6e65ffffffff6950686f6e6531332c34ffffffffffffffffffff</t>
   </si>
   <si>
     <t>以上为示例数据，录入数据请从第二行开始，完成录入后，请删除本行及示例数据！</t>
-  </si>
-  <si>
-    <t>特征点数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ffffffd4d3d20affffffffffffffffffffffffff7fba9f3bc89c6daa7d7eb85b4bc86dffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone 12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -115,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,24 +142,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,13 +158,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,22 +445,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="83.625" customWidth="1"/>
-    <col min="5" max="5" width="233.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,56 +471,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/phoneCalibrationExcel.xlsx
+++ b/public/template/phoneCalibrationExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chrome\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dkserver-front-saic\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20820A-427E-4C1A-BAF3-D00A47B9F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB296D-E900-4381-AA93-66957A01926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,13 +40,14 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>iPhone 12 Pro Max</t>
-  </si>
-  <si>
     <t>00006950686f6e65ffffffff6950686f6e6531332c34ffffffffffffffffffff</t>
   </si>
   <si>
     <t>以上为示例数据，录入数据请从第二行开始，完成录入后，请删除本行及示例数据！</t>
+  </si>
+  <si>
+    <t>iPhone 12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,7 +449,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -480,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
